--- a/Entregas/Notas.xlsx
+++ b/Entregas/Notas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salin\Documents\Docencia\MetodosComputacionalesTeoria\Curso_Metodos_Computacionales\Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1EFC8D-4439-4AAF-A20A-39306730BC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0609EE99-6373-4762-BE32-837E22D87ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5376" yWindow="480" windowWidth="16404" windowHeight="9420" activeTab="1" xr2:uid="{2BD71777-4C7E-49F8-B6B8-F9D9B659E017}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{2BD71777-4C7E-49F8-B6B8-F9D9B659E017}"/>
   </bookViews>
   <sheets>
     <sheet name="Parcial 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>Metodo Secante</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>Osciladores</t>
+  </si>
+  <si>
+    <t>Canas Jose Diego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannas Jose Diego </t>
   </si>
 </sst>
 </file>
@@ -221,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -318,11 +324,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -340,40 +364,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3412C5F1-2AF9-4A4C-951A-6AEF0AE48C02}">
-  <dimension ref="A2:J30"/>
+  <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,27 +746,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="16"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="F3" s="20" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4">
@@ -742,12 +782,15 @@
       <c r="E4" s="4">
         <v>5</v>
       </c>
+      <c r="F4" s="22">
+        <v>5</v>
+      </c>
       <c r="J4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="4">
@@ -757,6 +800,9 @@
         <v>5</v>
       </c>
       <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="F5" s="22">
         <v>5</v>
       </c>
       <c r="I5" s="2"/>
@@ -765,7 +811,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4">
@@ -777,12 +823,15 @@
       <c r="E6" s="4">
         <v>5</v>
       </c>
+      <c r="F6" s="22">
+        <v>0</v>
+      </c>
       <c r="J6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="4">
@@ -791,13 +840,18 @@
       <c r="D7" s="4">
         <v>0.1</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
       <c r="J7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="4">
@@ -809,12 +863,15 @@
       <c r="E8" s="4">
         <v>5</v>
       </c>
+      <c r="F8" s="22">
+        <v>5</v>
+      </c>
       <c r="J8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4">
@@ -824,6 +881,9 @@
         <v>5</v>
       </c>
       <c r="E9" s="4">
+        <v>5</v>
+      </c>
+      <c r="F9" s="22">
         <v>5</v>
       </c>
       <c r="J9" t="s">
@@ -831,7 +891,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="4">
@@ -841,6 +901,9 @@
         <v>5</v>
       </c>
       <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="22">
         <v>5</v>
       </c>
       <c r="J10" t="s">
@@ -848,7 +911,7 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="4">
@@ -859,13 +922,16 @@
       </c>
       <c r="E11" s="4">
         <v>5</v>
+      </c>
+      <c r="F11" s="22">
+        <v>4</v>
       </c>
       <c r="J11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="4">
@@ -876,13 +942,16 @@
       </c>
       <c r="E12" s="4">
         <v>5</v>
+      </c>
+      <c r="F12" s="22">
+        <v>4</v>
       </c>
       <c r="J12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="4">
@@ -893,13 +962,16 @@
       </c>
       <c r="E13" s="4">
         <v>5</v>
+      </c>
+      <c r="F13" s="22">
+        <v>4</v>
       </c>
       <c r="J13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="4">
@@ -911,12 +983,15 @@
       <c r="E14" s="4">
         <v>2.5</v>
       </c>
+      <c r="F14" s="22">
+        <v>4</v>
+      </c>
       <c r="J14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="4">
@@ -926,6 +1001,9 @@
         <v>0</v>
       </c>
       <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="22">
         <v>0</v>
       </c>
       <c r="J15" t="s">
@@ -933,7 +1011,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="4">
@@ -948,12 +1026,16 @@
         <f>AVERAGE(E4:E6)*0.5+AVERAGE(E8:E15)*0.5+0.1</f>
         <v>4.6312499999999996</v>
       </c>
+      <c r="F16" s="4">
+        <f>AVERAGE(F4:F6)*0.5+AVERAGE(F8:F15)*0.5+0.1</f>
+        <v>3.7041666666666671</v>
+      </c>
       <c r="J16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -970,23 +1052,26 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="23" t="s">
         <v>29</v>
       </c>
+      <c r="F19" s="21" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="4">
@@ -998,10 +1083,13 @@
       <c r="E20" s="4">
         <v>5</v>
       </c>
+      <c r="F20" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="4">
@@ -1013,10 +1101,13 @@
       <c r="E21" s="4">
         <v>5</v>
       </c>
+      <c r="F21" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="4">
@@ -1028,10 +1119,13 @@
       <c r="E22" s="4">
         <v>5</v>
       </c>
+      <c r="F22" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="4">
@@ -1043,10 +1137,13 @@
       <c r="E23" s="4">
         <v>5</v>
       </c>
+      <c r="F23" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="4">
@@ -1058,10 +1155,13 @@
       <c r="E24" s="4">
         <v>5</v>
       </c>
+      <c r="F24" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="4">
@@ -1075,18 +1175,21 @@
         <f t="shared" ref="E25" si="0">AVERAGE(E20:E24)</f>
         <v>5</v>
       </c>
+      <c r="F25" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="4">
@@ -1097,7 +1200,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="4">
@@ -1108,7 +1211,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="4">
@@ -1118,10 +1221,21 @@
         <v>5</v>
       </c>
     </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="22">
+        <v>3.7</v>
+      </c>
+      <c r="D31" s="22">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
     <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1131,7 +1245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2D71C2-4DD1-4468-BA76-BDBE25147956}">
   <dimension ref="B2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1145,27 +1259,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="16"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="4">
@@ -1179,7 +1293,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="4">
@@ -1193,7 +1307,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="4">
@@ -1207,7 +1321,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4">
@@ -1224,7 +1338,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1238,23 +1352,23 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="4">
@@ -1266,8 +1380,8 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="4">
@@ -1281,19 +1395,19 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8">
+      <c r="C14" s="19"/>
+      <c r="D14" s="7">
         <f>(D12+D13)/2</f>
         <v>4.75</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <f t="shared" ref="E14:F14" si="1">(E12+E13)/2</f>
         <v>0</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <f t="shared" si="1"/>
         <v>4.75</v>
       </c>
@@ -1310,16 +1424,16 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="4">
@@ -1331,7 +1445,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="4">
@@ -1343,7 +1457,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="4">
@@ -1385,27 +1499,27 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="16"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="4"/>
@@ -1413,7 +1527,7 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="4"/>
@@ -1421,13 +1535,13 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="4"/>
@@ -1435,7 +1549,7 @@
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="5"/>
@@ -1443,23 +1557,23 @@
       <c r="E10" s="5"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="4"/>
@@ -1467,20 +1581,20 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">

--- a/Entregas/Notas.xlsx
+++ b/Entregas/Notas.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salin\Documents\Docencia\MetodosComputacionalesTeoria\Curso_Metodos_Computacionales\Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0609EE99-6373-4762-BE32-837E22D87ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA62C79-C7D7-4DFE-9137-1C682C883281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{2BD71777-4C7E-49F8-B6B8-F9D9B659E017}"/>
+    <workbookView xWindow="9768" yWindow="2412" windowWidth="16404" windowHeight="9420" activeTab="3" xr2:uid="{2BD71777-4C7E-49F8-B6B8-F9D9B659E017}"/>
   </bookViews>
   <sheets>
     <sheet name="Parcial 1" sheetId="1" r:id="rId1"/>
     <sheet name="Parcial 2" sheetId="2" r:id="rId2"/>
     <sheet name="Parcial 3" sheetId="3" r:id="rId3"/>
+    <sheet name="TotalCurso" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
   <si>
     <t>Metodo Secante</t>
   </si>
@@ -185,13 +186,55 @@
   </si>
   <si>
     <t xml:space="preserve">Cannas Jose Diego </t>
+  </si>
+  <si>
+    <t>Hace falta realizar un ajuste adecuado de los datos</t>
+  </si>
+  <si>
+    <t>Emplea los recuros pare resolver el problema, de manera coherente. Se recomienda buscar soluciones mas simples a los problemas, en este caso para el fit del oscilador armónico.</t>
+  </si>
+  <si>
+    <t>Taller Arley (25%)</t>
+  </si>
+  <si>
+    <t>Unidad 3 (25%)</t>
+  </si>
+  <si>
+    <t>Unidad 2 (25%)</t>
+  </si>
+  <si>
+    <t>Unidad 1 (25%)</t>
+  </si>
+  <si>
+    <t>T1(5%)</t>
+  </si>
+  <si>
+    <t>P1(20%)</t>
+  </si>
+  <si>
+    <t>Total(25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Curso </t>
+  </si>
+  <si>
+    <t>CANAS VALBUENA JOSE DIEGO</t>
+  </si>
+  <si>
+    <t>CHAVERRA CAICEDO ANDRÉS FELIPE</t>
+  </si>
+  <si>
+    <t>GAITÁN CASSO JUAN DIEGO</t>
+  </si>
+  <si>
+    <t>VERGEL SÁNCHEZ HAROLD DAVID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +249,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +285,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -346,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -375,6 +470,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,9 +493,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -399,16 +506,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -727,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3412C5F1-2AF9-4A4C-951A-6AEF0AE48C02}">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,13 +858,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="9"/>
@@ -765,7 +877,7 @@
       <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="12" t="s">
         <v>45</v>
       </c>
     </row>
@@ -782,7 +894,7 @@
       <c r="E4" s="4">
         <v>5</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="14">
         <v>5</v>
       </c>
       <c r="J4" t="s">
@@ -802,7 +914,7 @@
       <c r="E5" s="4">
         <v>5</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="14">
         <v>5</v>
       </c>
       <c r="I5" s="2"/>
@@ -823,7 +935,7 @@
       <c r="E6" s="4">
         <v>5</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="14">
         <v>0</v>
       </c>
       <c r="J6" t="s">
@@ -843,7 +955,7 @@
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="14">
         <v>0</v>
       </c>
       <c r="J7" t="s">
@@ -863,7 +975,7 @@
       <c r="E8" s="4">
         <v>5</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="14">
         <v>5</v>
       </c>
       <c r="J8" t="s">
@@ -883,7 +995,7 @@
       <c r="E9" s="4">
         <v>5</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="14">
         <v>5</v>
       </c>
       <c r="J9" t="s">
@@ -903,7 +1015,7 @@
       <c r="E10" s="4">
         <v>5</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="14">
         <v>5</v>
       </c>
       <c r="J10" t="s">
@@ -923,7 +1035,7 @@
       <c r="E11" s="4">
         <v>5</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="14">
         <v>4</v>
       </c>
       <c r="J11" t="s">
@@ -943,7 +1055,7 @@
       <c r="E12" s="4">
         <v>5</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="14">
         <v>4</v>
       </c>
       <c r="J12" t="s">
@@ -963,7 +1075,7 @@
       <c r="E13" s="4">
         <v>5</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="14">
         <v>4</v>
       </c>
       <c r="J13" t="s">
@@ -983,7 +1095,7 @@
       <c r="E14" s="4">
         <v>2.5</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="14">
         <v>4</v>
       </c>
       <c r="J14" t="s">
@@ -1003,7 +1115,7 @@
       <c r="E15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="14">
         <v>0</v>
       </c>
       <c r="J15" t="s">
@@ -1052,7 +1164,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="8"/>
@@ -1062,15 +1174,15 @@
       <c r="D19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
@@ -1083,12 +1195,12 @@
       <c r="E20" s="4">
         <v>5</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
@@ -1101,12 +1213,12 @@
       <c r="E21" s="4">
         <v>5</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="8" t="s">
         <v>25</v>
       </c>
@@ -1119,12 +1231,12 @@
       <c r="E22" s="4">
         <v>5</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="8" t="s">
         <v>26</v>
       </c>
@@ -1137,12 +1249,12 @@
       <c r="E23" s="4">
         <v>5</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="8" t="s">
         <v>27</v>
       </c>
@@ -1155,12 +1267,12 @@
       <c r="E24" s="4">
         <v>5</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="8" t="s">
         <v>14</v>
       </c>
@@ -1175,7 +1287,7 @@
         <f t="shared" ref="E25" si="0">AVERAGE(E20:E24)</f>
         <v>5</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="14">
         <v>5</v>
       </c>
     </row>
@@ -1222,13 +1334,13 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="14">
         <v>3.7</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="14">
         <v>5</v>
       </c>
     </row>
@@ -1245,7 +1357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2D71C2-4DD1-4468-BA76-BDBE25147956}">
   <dimension ref="B2:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1259,12 +1371,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="9"/>
@@ -1352,7 +1464,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="8"/>
@@ -1367,7 +1479,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="8" t="s">
         <v>32</v>
       </c>
@@ -1380,7 +1492,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="8" t="s">
         <v>33</v>
       </c>
@@ -1395,10 +1507,10 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="7">
         <f>(D12+D13)/2</f>
         <v>4.75</v>
@@ -1486,7 +1598,7 @@
   <dimension ref="B4:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1499,12 +1611,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="9"/>
@@ -1522,17 +1634,29 @@
       <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
@@ -1544,20 +1668,35 @@
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="4">
+        <f>(C6+C7)/2</f>
+        <v>3.75</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" ref="D9:E9" si="0">(D6+D7)/2</f>
+        <v>3.75</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="8"/>
@@ -1572,7 +1711,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="8" t="s">
         <v>44</v>
       </c>
@@ -1581,17 +1720,17 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="18"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="8"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1613,4 +1752,255 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4972F3-CB1C-439F-BAEA-2B243A53AB63}">
+  <dimension ref="B2:M7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C2" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="32"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30">
+        <f>(C4*0.2+D4*0.05)*5/1.25</f>
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="F4" s="27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G4" s="27">
+        <v>4.8</v>
+      </c>
+      <c r="H4" s="30">
+        <f>(F4*0.2+G4*0.05)*5/1.25</f>
+        <v>2.8</v>
+      </c>
+      <c r="I4" s="26">
+        <v>3.8</v>
+      </c>
+      <c r="J4" s="26">
+        <v>0</v>
+      </c>
+      <c r="K4" s="30">
+        <f>(I4*0.2+J4*0.05)*5/1.25</f>
+        <v>3.04</v>
+      </c>
+      <c r="L4" s="28">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M4" s="29">
+        <f>(E4+H4+K4+L4)/4</f>
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D5" s="26">
+        <v>3</v>
+      </c>
+      <c r="E5" s="30">
+        <f t="shared" ref="E5:E7" si="0">(C5*0.2+D5*0.05)*5/1.25</f>
+        <v>4.120000000000001</v>
+      </c>
+      <c r="F5" s="27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G5" s="27">
+        <v>0</v>
+      </c>
+      <c r="H5" s="30">
+        <f t="shared" ref="H5:H7" si="1">(F5*0.2+G5*0.05)*5/1.25</f>
+        <v>3.5200000000000005</v>
+      </c>
+      <c r="I5" s="26">
+        <v>3.8</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0</v>
+      </c>
+      <c r="K5" s="30">
+        <f t="shared" ref="K5:K6" si="2">(I5*0.2+J5*0.05)*5/1.25</f>
+        <v>3.04</v>
+      </c>
+      <c r="L5" s="28">
+        <v>3.9</v>
+      </c>
+      <c r="M5" s="29">
+        <f t="shared" ref="M5:M6" si="3">(E5+H5+K5+L5)/4</f>
+        <v>3.6450000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="26">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D6" s="26">
+        <v>5</v>
+      </c>
+      <c r="E6" s="30">
+        <f t="shared" si="0"/>
+        <v>4.68</v>
+      </c>
+      <c r="F6" s="27">
+        <v>4.7</v>
+      </c>
+      <c r="G6" s="27">
+        <v>4.8</v>
+      </c>
+      <c r="H6" s="30">
+        <f t="shared" si="1"/>
+        <v>4.7200000000000006</v>
+      </c>
+      <c r="I6" s="26">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J6" s="26">
+        <v>0</v>
+      </c>
+      <c r="K6" s="30">
+        <f>(I6*0.2+J6*0.05)*5/1.25</f>
+        <v>3.9200000000000004</v>
+      </c>
+      <c r="L6" s="28">
+        <v>3.9</v>
+      </c>
+      <c r="M6" s="29">
+        <f>(E6+H6+K6+L6)/4</f>
+        <v>4.3049999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="26">
+        <v>3.7</v>
+      </c>
+      <c r="D7" s="26">
+        <v>5</v>
+      </c>
+      <c r="E7" s="30">
+        <f t="shared" si="0"/>
+        <v>3.96</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0</v>
+      </c>
+      <c r="H7" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="26">
+        <v>0</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0</v>
+      </c>
+      <c r="K7" s="30">
+        <f>(I7*0.2+J7*0.05)*5/1.25</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="28">
+        <v>0</v>
+      </c>
+      <c r="M7" s="29">
+        <f>(E7+H7+K7+L7)/4</f>
+        <v>0.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>